--- a/REGULAR/BAYOT, RUMER MALABANAN.xlsx
+++ b/REGULAR/BAYOT, RUMER MALABANAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ASSESSOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A53E76-641F-48D6-9919-2ED805867390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2752BB0-EE9D-46A0-9049-D46C834125BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1321,9 +1321,9 @@
   <dimension ref="A2:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A103" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,7 +1486,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.917000000000002</v>
+        <v>65.167000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1496,7 +1496,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65</v>
+        <v>65.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3854,19 +3854,27 @@
       <c r="A118" s="40">
         <v>44986</v>
       </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
+      <c r="B118" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="39"/>
+      <c r="G118" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H118" s="39">
+        <v>1</v>
+      </c>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="49">
+        <v>44991</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">

--- a/REGULAR/BAYOT, RUMER MALABANAN.xlsx
+++ b/REGULAR/BAYOT, RUMER MALABANAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2752BB0-EE9D-46A0-9049-D46C834125BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BABE0F1-98B2-4E07-ACBE-0F98FDCB9779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>12/19,27,28/2022</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1321,9 +1324,9 @@
   <dimension ref="A2:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A109" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="3576" topLeftCell="A43" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,7 +1489,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.167000000000002</v>
+        <v>67.667000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1496,7 +1499,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.25</v>
+        <v>67.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3881,13 +3884,15 @@
         <v>45017</v>
       </c>
       <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
@@ -3899,13 +3904,15 @@
         <v>45047</v>
       </c>
       <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
@@ -4493,7 +4500,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4589,6 +4596,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4610,6 +4620,10 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>135.417</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
